--- a/Örnek 4 - Dört İşlem.xlsx
+++ b/Örnek 4 - Dört İşlem.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kagan_GUL\Desktop\Excel Uygulama\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-855" yWindow="-315" windowWidth="7980" windowHeight="2085"/>
+    <workbookView xWindow="-855" yWindow="-315" windowWidth="20730" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Formül1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>A</t>
   </si>
@@ -58,13 +53,19 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>Kübra Çabuk</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial Tur"/>
@@ -139,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,14 +154,11 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -225,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,35 +435,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L6" sqref="L6:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="45.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -478,7 +476,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -507,7 +505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="33">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -517,14 +515,32 @@
       <c r="C3" s="2">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.45">
+      <c r="D3" s="4">
+        <f>(A3+B3)</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <f>(B3+C3)</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <f>(D3-C3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <f>(A3-C3 /B3)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(A3*E3)</f>
+        <v>60</v>
+      </c>
+      <c r="I3" s="4">
+        <f>(A3+C3/B3)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="33">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -534,20 +550,40 @@
       <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="7" t="s">
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D11" si="0">(A4+B4)</f>
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E11" si="1">(B4+C4)</f>
+        <v>13</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F11" si="2">(D4-C4)</f>
+        <v>9</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G11" si="3">(A4-C4 /B4)</f>
+        <v>5.375</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H11" si="4">(A4*E4)</f>
+        <v>78</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I11" si="5">(A4+C4/B4)</f>
+        <v>6.625</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.45">
+      <c r="L4" s="7">
+        <v>20215070019</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="33">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -557,20 +593,40 @@
       <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="K5" s="7" t="s">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="5"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.45">
+      <c r="L5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="33">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -580,20 +636,40 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="K6" s="7" t="s">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.45">
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="5"/>
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="33">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -603,14 +679,32 @@
       <c r="C7" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.45">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="3"/>
+        <v>6.75</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="5"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="33">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -620,14 +714,32 @@
       <c r="C8" s="2">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.45">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="3"/>
+        <v>5.8571428571428577</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="33">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -637,14 +749,32 @@
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.45">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="33">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -654,14 +784,32 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.45">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>8.2857142857142865</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="5"/>
+        <v>9.7142857142857135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="33">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -671,12 +819,30 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
